--- a/DB_VerificationRequest.xlsx
+++ b/DB_VerificationRequest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Katalon Studio\ACCPartner-CMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF64E75F-5DBE-4FFF-A538-F26A003AD624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585DA11B-60DF-421C-8516-BEEB34F71EE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A2101EF8-DE5A-4926-B0BD-22FB4392826C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>varSearchVerification</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>M0012</t>
   </si>
   <si>
     <t>N</t>
@@ -479,7 +476,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +597,8 @@
       <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -609,7 +606,9 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="H3" t="s">
         <v>22</v>
       </c>
@@ -632,7 +631,7 @@
         <v>27</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
